--- a/data/trans_dic/P12B1_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &gt;=60 años</t>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,37%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59,63%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,43; 72,79</t>
+          <t>3,33; 8,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,55; 71,76</t>
+          <t>2,84; 6,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,62; 66,6</t>
+          <t>3,23; 6,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,38; 63,1</t>
+          <t>2,5; 6,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,13; 76,34</t>
+          <t>4,07; 7,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,53; 71,86</t>
+          <t>5,28; 10,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,91; 77,38</t>
+          <t>4,25; 8,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,65; 73,65</t>
+          <t>4,58; 7,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,68; 69,27</t>
+          <t>4,01; 7,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,44; 67,81</t>
+          <t>3,83; 8,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,45; 68,97</t>
+          <t>4,49; 8,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,38; 66,12</t>
+          <t>4,77; 9,43</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 7,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 6,72</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 6,18</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 6,84</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 7,5</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 8,77</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>64,71%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,85%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>68,92%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,49; 84,12</t>
+          <t>2,65; 9,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,31; 63,27</t>
+          <t>1,96; 5,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,5; 70,7</t>
+          <t>2,4; 5,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,15; 90,51</t>
+          <t>2,48; 6,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,26; 82,57</t>
+          <t>3,53; 10,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,88; 79,8</t>
+          <t>1,33; 6,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,72; 76,23</t>
+          <t>5,31; 11,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,48; 89,54</t>
+          <t>4,2; 8,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,09; 78,28</t>
+          <t>5,37; 12,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,95; 68,34</t>
+          <t>5,12; 14,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,21; 69,87</t>
+          <t>5,81; 17,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,51; 86,91</t>
+          <t>0,78; 5,71</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 8,67</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 5,94</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 8,36</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 9,25</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 12,53</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 4,87</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,28%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,08%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>93,7%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>75,29%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>84,83%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,55; 100,0</t>
+          <t>4,19; 15,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 90,62</t>
+          <t>5,44; 16,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,32; 100,0</t>
+          <t>3,71; 14,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,18; 12,26</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>88,17; 100</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,58; 96,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>67,11; 94,16</t>
+          <t>7,45; 19,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>6,14; 16,57</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7,62; 18,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 14,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>79,87; 100,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>43,55; 89,35</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>72,13; 93,91</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 14,72</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 14,5</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 14,17</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 10,78</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>62,84%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,66%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,37; 74,15</t>
+          <t>3,9; 7,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,55; 65,32</t>
+          <t>3,45; 5,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,11; 67,34</t>
+          <t>3,63; 5,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,2; 66,95</t>
+          <t>3,0; 5,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,84; 80,48</t>
+          <t>4,37; 7,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,52; 74,45</t>
+          <t>4,82; 8,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,92; 75,73</t>
+          <t>5,86; 9,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,84; 75,38</t>
+          <t>5,4; 8,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,98; 74,26</t>
+          <t>5,84; 9,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54,58; 68,95</t>
+          <t>5,05; 9,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,1; 69,49</t>
+          <t>5,32; 9,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,52; 69,11</t>
+          <t>4,18; 7,82</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 7,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 6,62</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 7,04</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 6,93</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 7,96</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 7,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>81567</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>69426</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>74277</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>67480</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12857</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15229</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>106171</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>111247</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>100776</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>101012</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15030</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14133</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>187737</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>180673</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>175053</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>168493</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>27887</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>29362</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>55062; 136616</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46652; 103622</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52968; 105881</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>40362; 107682</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9345; 17501</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10873; 21281</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>76811; 146206</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>83598; 145297</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>72860; 133828</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67323; 147083</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10665; 20617</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9998; 19780</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>145126; 254640</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>145333; 233266</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>138282; 213711</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>123955; 230848</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>22040; 35033</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>22599; 36484</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>63716</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>43604</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53500</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>54231</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>103961</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>81894</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>105800</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>113206</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6766</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>167677</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>125498</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>159301</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>167437</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11349</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36415; 128288</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27074; 69207</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33012; 81607</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33668; 90610</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2550; 7717</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>882; 4256</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73616; 158498</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57623; 110431</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>74237; 170072</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>70222; 198860</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3809; 11709</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>474; 3468</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>122695; 239348</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>92742; 163567</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>124404; 230467</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>115576; 252270</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7669; 17266</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1913; 6170</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35425</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42028</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31026</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22723</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50041</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44652</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52197</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21491</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>85465</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>86680</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>83223</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>44214</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17550; 63952</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23005; 68732</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15573; 59397</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8823; 49697</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30705; 81962</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25137; 67877</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31366; 75947</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4885; 57118</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>57480; 122302</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>61622; 120659</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>54905; 117802</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>21736; 86232</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>180707</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>155058</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>158804</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144434</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17440</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17296</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>260172</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>237792</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>258773</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>235709</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21796</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15590</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>440880</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>392850</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>417578</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>380144</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>39236</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>32886</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>134349; 266169</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>118794; 199842</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>124679; 205042</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>101374; 192260</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13172; 23452</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13129; 23741</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>211362; 329569</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>194745; 290958</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>210669; 325064</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>177843; 319600</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16141; 28551</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11295; 21155</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>363168; 541918</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>340550; 466809</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>354090; 495794</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>299691; 478448</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>31920; 48150</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>25893; 41292</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
